--- a/db/job_inventory.xlsx
+++ b/db/job_inventory.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CWS-NS3/cws_legacy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CWS-NS3/Documents/workspace_neon/jobs/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37140" yWindow="900" windowWidth="36260" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="104">
   <si>
     <t>VW_SCREENING_HISTORY</t>
   </si>
@@ -362,18 +362,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -398,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,7 +400,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -696,7 +689,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,7 +704,7 @@
     <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" style="4" customWidth="1"/>
     <col min="12" max="13" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -743,7 +736,7 @@
       <c r="J1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -828,11 +821,15 @@
       <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1078,7 +1075,7 @@
       <c r="J12" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L12" t="s">
@@ -1162,13 +1159,13 @@
       <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>98</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>99</v>
       </c>
       <c r="G15" s="1" t="s">

--- a/db/job_inventory.xlsx
+++ b/db/job_inventory.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$17</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
   <si>
     <t>VW_SCREENING_HISTORY</t>
   </si>
@@ -685,594 +688,573 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M20"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" style="4" customWidth="1"/>
-    <col min="12" max="13" width="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" style="4" customWidth="1"/>
+    <col min="11" max="12" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H11" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I11" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K11" t="s">
         <v>20</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H12" t="s">
         <v>29</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I12" t="s">
         <v>27</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K12" t="s">
         <v>20</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>76</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>65</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
         <v>71</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H13" t="s">
         <v>71</v>
       </c>
-      <c r="J12" t="s">
+      <c r="I13" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K13" t="s">
         <v>68</v>
       </c>
-      <c r="M12" t="s">
+      <c r="L13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>77</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
         <v>72</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
         <v>85</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H14" t="s">
         <v>82</v>
       </c>
-      <c r="J13" t="s">
+      <c r="I14" t="s">
         <v>80</v>
       </c>
-      <c r="L13" t="s">
+      <c r="K14" t="s">
         <v>78</v>
       </c>
-      <c r="M13" t="s">
+      <c r="L14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" t="s">
-        <v>86</v>
-      </c>
-      <c r="M14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
       <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>19</v>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>97</v>
       </c>
       <c r="I15" t="s">
         <v>97</v>
       </c>
-      <c r="J15" t="s">
-        <v>97</v>
+      <c r="K15" t="s">
+        <v>95</v>
       </c>
       <c r="L15" t="s">
-        <v>95</v>
-      </c>
-      <c r="M15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" t="s">
-        <v>102</v>
-      </c>
-      <c r="M17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M17">
+    <sortState ref="A2:L16">
+      <sortCondition ref="E1:E17"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>